--- a/finalp/src/main/webapp/resources/db/QUESTION_CATEGORY.xlsx
+++ b/finalp/src/main/webapp/resources/db/QUESTION_CATEGORY.xlsx
@@ -28,13 +28,13 @@
     <t xml:space="preserve">QUESTION_CATEGORY_NAME</t>
   </si>
   <si>
-    <t xml:space="preserve">QUE-ADMIN</t>
+    <t xml:space="preserve">Q-ADMIN</t>
   </si>
   <si>
     <t xml:space="preserve">관리자에게 문의</t>
   </si>
   <si>
-    <t xml:space="preserve">QUE-SELLER</t>
+    <t xml:space="preserve">Q-SEL</t>
   </si>
   <si>
     <t xml:space="preserve">판매자에게 문의</t>
@@ -140,13 +140,14 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.2926829268293"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.780487804878"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.0390243902439"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.9756097560976"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.29268292682927"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
